--- a/BackTest/2019-11-24 BackTest XLM.xlsx
+++ b/BackTest/2019-11-24 BackTest XLM.xlsx
@@ -3601,13 +3601,17 @@
         <v>69.30000000000007</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>69.3</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3636,14 +3640,22 @@
         <v>69.20000000000007</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3683,22 @@
         <v>69.15000000000006</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K94" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3706,14 +3726,22 @@
         <v>69.20000000000006</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3769,22 @@
         <v>69.15000000000006</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3812,22 @@
         <v>68.95000000000007</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K97" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +3943,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +3984,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4066,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4107,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4148,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4097,8 +4189,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4132,8 +4230,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4167,8 +4271,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4353,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4394,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4435,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4476,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4377,8 +4517,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4412,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4599,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +4681,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4587,8 +4763,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +4804,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +4845,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +4886,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +4968,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5009,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +5050,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5091,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +5132,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5214,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5296,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5337,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5378,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5419,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5542,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5583,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +5829,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +5911,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5952,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5993,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +6034,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +6075,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +6116,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6198,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +6239,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6280,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6321,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6362,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6444,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +6485,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6526,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6567,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6608,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +6649,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6690,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6731,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6813,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +6854,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6895,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6936,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6977,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +7059,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6576,18 +7094,20 @@
         <v>69.05000000000001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>69</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>69</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
+        <v>69.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6615,20 +7135,18 @@
         <v>68.90000000000002</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>69</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -6658,16 +7176,14 @@
         <v>68.85000000000002</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>68.8</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6701,16 +7217,14 @@
         <v>68.90000000000003</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6744,16 +7258,14 @@
         <v>68.90000000000003</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6787,16 +7299,14 @@
         <v>68.95000000000003</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -6830,16 +7340,14 @@
         <v>68.90000000000002</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>68.8</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -6873,16 +7381,14 @@
         <v>68.90000000000002</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>69</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -6916,16 +7422,14 @@
         <v>68.95000000000002</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>68.8</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -6959,16 +7463,14 @@
         <v>68.95000000000002</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>69</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7002,16 +7504,14 @@
         <v>69.00000000000001</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>69</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7045,16 +7545,14 @@
         <v>69.00000000000001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>69</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7088,16 +7586,14 @@
         <v>69.00000000000001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>69</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7131,16 +7627,14 @@
         <v>68.95000000000002</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7174,16 +7668,14 @@
         <v>68.90000000000002</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7217,16 +7709,14 @@
         <v>68.90000000000002</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7260,16 +7750,14 @@
         <v>68.75000000000001</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>68.8</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7303,16 +7791,14 @@
         <v>68.80000000000001</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>69</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7346,16 +7832,14 @@
         <v>68.90000000000002</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7389,16 +7873,14 @@
         <v>68.90000000000002</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>69</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7432,16 +7914,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>69</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7475,16 +7955,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>69</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7518,16 +7996,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>69</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7561,16 +8037,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>69</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7604,16 +8078,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>69</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7647,16 +8119,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>69</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7690,16 +8160,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>69</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7733,16 +8201,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>69</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7776,16 +8242,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>69</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7819,16 +8283,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>69</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7862,16 +8324,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>69</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -7905,16 +8365,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>69</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -7948,16 +8406,14 @@
         <v>69.00000000000003</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>69</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -7991,16 +8447,14 @@
         <v>69.05000000000003</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>69</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8034,16 +8488,14 @@
         <v>69.05000000000003</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>69</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8077,16 +8529,14 @@
         <v>69.10000000000004</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>69.2</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8120,16 +8570,14 @@
         <v>69.20000000000005</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>69.2</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8163,16 +8611,14 @@
         <v>69.20000000000005</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>69.2</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8206,16 +8652,14 @@
         <v>69.30000000000004</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>69.40000000000001</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8249,16 +8693,14 @@
         <v>69.45000000000005</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>69.5</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8292,16 +8734,14 @@
         <v>69.45000000000005</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>69.40000000000001</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8335,16 +8775,14 @@
         <v>69.45000000000005</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>69.5</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8378,16 +8816,14 @@
         <v>69.55000000000004</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>69.59999999999999</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8428,7 +8864,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8469,7 +8905,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8510,7 +8946,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8551,7 +8987,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8592,7 +9028,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8633,7 +9069,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8674,7 +9110,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8715,7 +9151,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8756,7 +9192,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8797,7 +9233,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8838,7 +9274,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8879,7 +9315,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8920,7 +9356,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8961,7 +9397,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9002,7 +9438,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9043,7 +9479,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9084,7 +9520,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9125,7 +9561,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9166,7 +9602,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9207,7 +9643,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9248,7 +9684,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9289,7 +9725,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9330,7 +9766,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9371,7 +9807,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9412,7 +9848,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9453,7 +9889,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9494,7 +9930,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9535,7 +9971,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9576,7 +10012,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9617,7 +10053,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9658,7 +10094,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9699,7 +10135,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9740,7 +10176,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9781,7 +10217,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9822,7 +10258,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9863,7 +10299,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9904,7 +10340,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9945,7 +10381,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9986,7 +10422,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10027,7 +10463,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10068,7 +10504,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10109,7 +10545,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10150,7 +10586,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10191,7 +10627,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10232,7 +10668,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10273,7 +10709,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10314,7 +10750,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10355,7 +10791,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10396,7 +10832,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10437,7 +10873,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10478,7 +10914,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10519,7 +10955,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10560,7 +10996,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10601,7 +11037,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10642,7 +11078,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10683,7 +11119,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10724,7 +11160,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10765,7 +11201,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10806,7 +11242,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10847,7 +11283,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10888,7 +11324,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10929,7 +11365,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10970,7 +11406,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11011,7 +11447,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11052,7 +11488,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11093,7 +11529,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11134,7 +11570,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11175,7 +11611,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11216,7 +11652,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11257,7 +11693,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11298,7 +11734,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11339,7 +11775,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11380,7 +11816,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11421,7 +11857,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11462,7 +11898,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11503,7 +11939,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11544,7 +11980,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11585,7 +12021,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11626,7 +12062,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11667,7 +12103,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11708,7 +12144,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11749,7 +12185,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11790,7 +12226,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11831,7 +12267,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11872,7 +12308,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11913,7 +12349,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11954,7 +12390,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11995,7 +12431,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12036,7 +12472,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -12077,7 +12513,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12118,7 +12554,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12159,7 +12595,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12200,7 +12636,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12241,7 +12677,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12282,7 +12718,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12323,7 +12759,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12364,7 +12800,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12405,7 +12841,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -12446,7 +12882,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -12487,7 +12923,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -12528,7 +12964,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -12569,7 +13005,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12610,7 +13046,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12647,19 +13083,19 @@
         <v>0</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>1</v>
+        <v>1.028189033189033</v>
       </c>
     </row>
     <row r="324">
@@ -12688,17 +13124,11 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>69</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12732,14 +13162,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>69</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12773,14 +13197,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>69</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12814,14 +13232,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>69</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12855,14 +13267,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>69</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12893,19 +13299,13 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>69</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
-        <v>1.026884057971015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -12934,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
@@ -12969,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
@@ -13004,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
@@ -13039,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
@@ -13074,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -14579,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
@@ -14614,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
@@ -14649,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>

--- a/BackTest/2019-11-24 BackTest XLM.xlsx
+++ b/BackTest/2019-11-24 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71</v>
+      </c>
+      <c r="J3" t="n">
+        <v>71</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1206164.65872322</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>71</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71</v>
+      </c>
+      <c r="J7" t="n">
+        <v>71</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>1248901.55862322</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>71</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>1248680.08402322</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>70.7</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>70.40000000000001</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>1336798.06092322</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -4906,14 +4984,10 @@
         <v>1848949.18336743</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>69.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
@@ -4946,14 +5020,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4982,19 +5050,11 @@
         <v>1798399.37996743</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J139" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5023,19 +5083,11 @@
         <v>1798399.37996743</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J140" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5064,19 +5116,11 @@
         <v>1800699.37996743</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J141" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5108,14 +5152,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5144,19 +5182,11 @@
         <v>1799049.37996743</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J143" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5185,19 +5215,11 @@
         <v>1799049.37996743</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J144" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5226,19 +5248,11 @@
         <v>1799049.37996743</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J145" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5267,19 +5281,11 @@
         <v>1799049.37996743</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J146" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5308,19 +5314,11 @@
         <v>1799049.37996743</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J147" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5349,19 +5347,11 @@
         <v>1799049.37996743</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J148" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5390,19 +5380,11 @@
         <v>1810955.27386743</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J149" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5431,19 +5413,11 @@
         <v>1811455.27386743</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J150" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5472,19 +5446,11 @@
         <v>1811455.27386743</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J151" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5513,19 +5479,11 @@
         <v>1804736.93016743</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5635,14 +5581,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5674,14 +5614,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5710,19 +5644,11 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5754,14 +5680,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5793,14 +5713,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5832,14 +5746,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5871,14 +5779,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5910,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5946,19 +5842,11 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J163" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5987,19 +5875,11 @@
         <v>1759628.74476743</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J164" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6031,14 +5911,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6070,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6109,14 +5977,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6148,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6187,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6226,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6265,14 +6109,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6304,14 +6142,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6343,14 +6175,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6382,14 +6208,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6421,14 +6241,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6460,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6499,14 +6307,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6538,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6577,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6616,14 +6406,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6655,14 +6439,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6694,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6733,14 +6505,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6772,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6808,19 +6568,11 @@
         <v>1781997.26583433</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="J185" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6849,19 +6601,11 @@
         <v>1783849.30113433</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="J186" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6929,19 +6667,11 @@
         <v>1792560.74843433</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J188" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6970,19 +6700,11 @@
         <v>1804748.51113433</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>70</v>
-      </c>
-      <c r="J189" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7011,19 +6733,11 @@
         <v>1804748.51113433</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J190" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7052,19 +6766,11 @@
         <v>1803625.35113433</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7093,19 +6799,11 @@
         <v>1803625.35113433</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>70</v>
-      </c>
-      <c r="J192" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7134,19 +6832,11 @@
         <v>1799172.67773433</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>70</v>
-      </c>
-      <c r="J193" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7175,19 +6865,11 @@
         <v>1799172.67773433</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J194" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7216,19 +6898,11 @@
         <v>1787589.24053433</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J195" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7257,19 +6931,11 @@
         <v>1787589.24053433</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J196" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7298,19 +6964,11 @@
         <v>1800879.28163433</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J197" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7339,19 +6997,11 @@
         <v>1786588.36472889</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J198" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7380,19 +7030,11 @@
         <v>1747069.07162889</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J199" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7421,19 +7063,11 @@
         <v>1747069.07162889</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="J200" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7462,19 +7096,11 @@
         <v>1739263.50222889</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="J201" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7503,19 +7129,11 @@
         <v>1739263.50222889</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J202" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7544,19 +7162,11 @@
         <v>1739263.50222889</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J203" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7585,19 +7195,11 @@
         <v>1737630.88262889</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J204" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7626,19 +7228,11 @@
         <v>1728548.42712889</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J205" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7667,19 +7261,11 @@
         <v>1685505.38902889</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J206" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7708,19 +7294,11 @@
         <v>1685505.38902889</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J207" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7749,19 +7327,11 @@
         <v>1684840.28902889</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J208" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7790,19 +7360,11 @@
         <v>1684840.28902889</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J209" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7831,19 +7393,11 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J210" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7872,19 +7426,11 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J211" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7913,19 +7459,11 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J212" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7954,19 +7492,11 @@
         <v>1684848.28902889</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J213" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7995,19 +7525,11 @@
         <v>1684280.49622889</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J214" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8036,19 +7558,11 @@
         <v>1688935.77092889</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J215" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8077,19 +7591,11 @@
         <v>1686935.77092889</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J216" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8118,19 +7624,11 @@
         <v>1686935.77092889</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J217" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8159,19 +7657,11 @@
         <v>1686935.77092889</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J218" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8200,19 +7690,11 @@
         <v>1686935.77092889</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J219" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8241,19 +7723,11 @@
         <v>1687689.77092889</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J220" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8282,19 +7756,11 @@
         <v>1684404.01452889</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J221" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8323,19 +7789,11 @@
         <v>1684404.01452889</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J222" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8364,19 +7822,11 @@
         <v>1684404.01452889</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J223" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8405,19 +7855,11 @@
         <v>1663144.45722889</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J224" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8446,19 +7888,11 @@
         <v>1663144.45722889</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J225" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8487,19 +7921,11 @@
         <v>1663144.45722889</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J226" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8528,19 +7954,11 @@
         <v>1663144.45722889</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J227" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8569,19 +7987,11 @@
         <v>1643324.08042889</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J228" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8610,19 +8020,11 @@
         <v>1625750.41112889</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J229" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8651,19 +8053,11 @@
         <v>1625778.09222889</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>69</v>
-      </c>
-      <c r="J230" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8692,19 +8086,11 @@
         <v>1625295.09232889</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J231" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8733,19 +8119,11 @@
         <v>1625821.09232889</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J232" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8774,19 +8152,11 @@
         <v>1608993.49972889</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J233" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8815,19 +8185,11 @@
         <v>1595174.85222889</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J234" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8856,19 +8218,11 @@
         <v>1595203.77122889</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>69</v>
-      </c>
-      <c r="J235" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8897,19 +8251,11 @@
         <v>1584168.17522889</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J236" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8938,19 +8284,11 @@
         <v>1555661.45802889</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>69</v>
-      </c>
-      <c r="J237" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8979,19 +8317,11 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J238" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9020,19 +8350,11 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J239" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9061,19 +8383,11 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J240" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9102,19 +8416,11 @@
         <v>1625279.99092889</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J241" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9143,19 +8449,11 @@
         <v>1622119.49022889</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>69</v>
-      </c>
-      <c r="J242" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9184,19 +8482,11 @@
         <v>1622169.49022889</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J243" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9225,19 +8515,11 @@
         <v>1596328.94422889</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>69</v>
-      </c>
-      <c r="J244" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9266,19 +8548,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J245" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9307,19 +8581,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>69</v>
-      </c>
-      <c r="J246" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9348,19 +8614,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>69</v>
-      </c>
-      <c r="J247" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9389,19 +8647,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>69</v>
-      </c>
-      <c r="J248" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9430,19 +8680,11 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>69</v>
-      </c>
-      <c r="J249" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9471,19 +8713,11 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J250" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9512,19 +8746,11 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J251" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9553,19 +8779,11 @@
         <v>1572248.30632889</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J252" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9594,19 +8812,11 @@
         <v>1572972.35562889</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="J253" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9635,19 +8845,11 @@
         <v>1567901.49762889</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>69</v>
-      </c>
-      <c r="J254" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9676,19 +8878,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J255" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9717,19 +8911,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>69</v>
-      </c>
-      <c r="J256" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9758,19 +8944,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>69</v>
-      </c>
-      <c r="J257" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9799,19 +8977,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>69</v>
-      </c>
-      <c r="J258" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9840,19 +9010,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>69</v>
-      </c>
-      <c r="J259" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9881,19 +9043,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>69</v>
-      </c>
-      <c r="J260" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9922,19 +9076,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>69</v>
-      </c>
-      <c r="J261" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9963,19 +9109,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>69</v>
-      </c>
-      <c r="J262" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10004,19 +9142,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>69</v>
-      </c>
-      <c r="J263" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10045,19 +9175,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>69</v>
-      </c>
-      <c r="J264" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10086,19 +9208,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>69</v>
-      </c>
-      <c r="J265" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10127,19 +9241,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>69</v>
-      </c>
-      <c r="J266" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10168,19 +9274,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>69</v>
-      </c>
-      <c r="J267" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10209,19 +9307,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>69</v>
-      </c>
-      <c r="J268" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10250,19 +9340,11 @@
         <v>1592720.11412889</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>69</v>
-      </c>
-      <c r="J269" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10291,19 +9373,11 @@
         <v>1584720.11412889</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J270" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10332,19 +9406,11 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>69</v>
-      </c>
-      <c r="J271" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10373,19 +9439,11 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J272" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10414,19 +9472,11 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J273" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10455,19 +9505,11 @@
         <v>1606100.50322889</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J274" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10496,19 +9538,11 @@
         <v>1606183.78652889</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J275" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10537,19 +9571,11 @@
         <v>1592739.76342889</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J276" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10581,14 +9607,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10620,14 +9640,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10659,14 +9673,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10695,19 +9703,11 @@
         <v>1606554.56072889</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J280" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10736,19 +9736,11 @@
         <v>1593883.21592889</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J281" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10777,19 +9769,11 @@
         <v>1595246.61822889</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J282" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10818,19 +9802,11 @@
         <v>1595246.61822889</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J283" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10859,19 +9835,11 @@
         <v>1628354.21572889</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J284" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10900,19 +9868,11 @@
         <v>1628362.21572889</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>70</v>
-      </c>
-      <c r="J285" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10941,19 +9901,11 @@
         <v>1628362.21572889</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J286" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10982,19 +9934,11 @@
         <v>1630006.51692889</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J287" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11023,19 +9967,11 @@
         <v>1617410.07742889</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J288" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11064,19 +10000,11 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J289" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11105,19 +10033,11 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J290" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11146,19 +10066,11 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J291" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11187,19 +10099,11 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J292" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11228,19 +10132,11 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J293" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11269,19 +10165,11 @@
         <v>1619180.13442889</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J294" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11310,19 +10198,11 @@
         <v>1618680.13452889</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J295" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11351,19 +10231,11 @@
         <v>1759287.64062889</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>70</v>
-      </c>
-      <c r="J296" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11392,19 +10264,11 @@
         <v>1758847.96632889</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J297" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11433,19 +10297,11 @@
         <v>1758919.92792889</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="J298" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11474,19 +10330,11 @@
         <v>1745021.41972889</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J299" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11515,19 +10363,11 @@
         <v>1757595.86842889</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J300" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11556,19 +10396,11 @@
         <v>1757595.86842889</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J301" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11597,19 +10429,11 @@
         <v>1753932.21002889</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J302" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11638,19 +10462,11 @@
         <v>1753932.21002889</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J303" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11679,19 +10495,11 @@
         <v>1745399.82452889</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J304" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11720,19 +10528,11 @@
         <v>1736003.44052889</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="J305" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11761,19 +10561,11 @@
         <v>1774208.28142889</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J306" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11802,19 +10594,11 @@
         <v>1774208.28142889</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J307" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11843,19 +10627,11 @@
         <v>1774208.28142889</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J308" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11884,19 +10660,11 @@
         <v>1774216.28142889</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="J309" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11925,19 +10693,11 @@
         <v>1770683.37682889</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J310" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11966,19 +10726,11 @@
         <v>1770683.37682889</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>70</v>
-      </c>
-      <c r="J311" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12007,19 +10759,11 @@
         <v>1770708.13572889</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>70</v>
-      </c>
-      <c r="J312" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12048,19 +10792,11 @@
         <v>1770708.13572889</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J313" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12089,19 +10825,11 @@
         <v>1770708.13572889</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J314" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12130,19 +10858,11 @@
         <v>1778389.89942889</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="J315" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12171,19 +10891,11 @@
         <v>1778554.96522889</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J316" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12212,19 +10924,11 @@
         <v>1778554.96522889</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="J317" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12253,19 +10957,11 @@
         <v>1781997.32022889</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="J318" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12294,19 +10990,11 @@
         <v>1773036.81652889</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="J319" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12338,14 +11026,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12374,19 +11056,11 @@
         <v>1773036.81652889</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="J321" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12418,14 +11092,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12454,19 +11122,11 @@
         <v>1725876.99292889</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="J323" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12495,19 +11155,11 @@
         <v>1725876.99292889</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J324" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12536,19 +11188,11 @@
         <v>1725884.99292889</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J325" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12580,14 +11224,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12619,14 +11257,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12658,14 +11290,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12697,14 +11323,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12736,14 +11356,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12775,14 +11389,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12811,19 +11419,11 @@
         <v>1635934.11752889</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>69</v>
-      </c>
-      <c r="J332" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12855,14 +11455,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12894,14 +11488,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12933,14 +11521,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12972,14 +11554,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13011,14 +11587,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13050,14 +11620,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13089,14 +11653,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13128,14 +11686,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13164,19 +11716,11 @@
         <v>1632929.13312889</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="J341" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13208,14 +11752,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13247,14 +11785,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13286,14 +11818,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13325,14 +11851,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13364,14 +11884,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13403,14 +11917,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13442,14 +11950,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13481,14 +11983,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13517,19 +12013,11 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J350" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13558,19 +12046,11 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>69</v>
-      </c>
-      <c r="J351" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13599,19 +12079,11 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>69</v>
-      </c>
-      <c r="J352" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13640,19 +12112,11 @@
         <v>1464082.581028889</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>69</v>
-      </c>
-      <c r="J353" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13681,19 +12145,11 @@
         <v>1464182.581028889</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J354" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13722,19 +12178,11 @@
         <v>1464182.581028889</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J355" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13763,19 +12211,11 @@
         <v>1464182.581028889</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J356" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13804,19 +12244,11 @@
         <v>1468088.937428889</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="J357" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13848,14 +12280,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13884,19 +12310,11 @@
         <v>1468088.937428889</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J359" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13925,19 +12343,11 @@
         <v>1468088.937428889</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J360" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13966,19 +12376,11 @@
         <v>1466045.894028889</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J361" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14010,14 +12412,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14049,14 +12445,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14088,14 +12478,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14127,14 +12511,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14166,14 +12544,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14205,14 +12577,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14244,14 +12610,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14283,14 +12643,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14322,14 +12676,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14361,14 +12709,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14400,14 +12742,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14439,14 +12775,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14478,14 +12808,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14517,14 +12841,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14556,14 +12874,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14595,14 +12907,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14634,14 +12940,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14673,14 +12973,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14712,14 +13006,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14751,14 +13039,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14790,14 +13072,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14829,14 +13105,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14865,17 +13135,11 @@
         <v>1573354.404870519</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14904,17 +13168,11 @@
         <v>1581354.404870519</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14943,17 +13201,11 @@
         <v>1537604.457870519</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14985,14 +13237,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15021,17 +13267,11 @@
         <v>1548035.55717052</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15060,17 +13300,11 @@
         <v>1555947.44410227</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15102,14 +13336,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15141,14 +13369,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15180,14 +13402,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15219,14 +13435,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15258,14 +13468,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15297,14 +13501,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15336,14 +13534,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15375,14 +13567,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15414,14 +13600,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15453,14 +13633,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15492,14 +13666,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15528,17 +13696,11 @@
         <v>1509314.56310227</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15567,17 +13729,11 @@
         <v>1484528.06590227</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15606,17 +13762,11 @@
         <v>1484528.06590227</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15645,17 +13795,11 @@
         <v>1485631.95090227</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15684,17 +13828,11 @@
         <v>1485631.95090227</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15723,17 +13861,11 @@
         <v>1485631.95090227</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15762,17 +13894,11 @@
         <v>1485631.95090227</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15801,17 +13927,11 @@
         <v>1438686.96860227</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15840,17 +13960,11 @@
         <v>1440939.51120227</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15879,17 +13993,11 @@
         <v>1440939.51120227</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15918,17 +14026,11 @@
         <v>1440949.51120227</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15957,17 +14059,11 @@
         <v>1442025.41430227</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15996,17 +14092,11 @@
         <v>1457720.70400227</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16035,17 +14125,11 @@
         <v>1457720.70400227</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16077,14 +14161,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16116,14 +14194,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16152,17 +14224,11 @@
         <v>1449175.41500227</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16194,14 +14260,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16233,14 +14293,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16272,14 +14326,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16311,14 +14359,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16350,14 +14392,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16389,14 +14425,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16428,14 +14458,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16467,14 +14491,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16506,14 +14524,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16545,14 +14557,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16584,14 +14590,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16623,14 +14623,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16662,14 +14656,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16701,14 +14689,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16740,14 +14722,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16779,14 +14755,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16818,14 +14788,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16857,14 +14821,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16893,19 +14851,13 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
-        <v>1.035345821325649</v>
+        <v>1</v>
       </c>
       <c r="M436" t="inlineStr"/>
     </row>
@@ -16965,7 +14917,7 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16998,7 +14950,7 @@
         <v>2046379.66490227</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17031,7 +14983,7 @@
         <v>2027006.65520227</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17295,7 +15247,7 @@
         <v>1967541.47120227</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17328,7 +15280,7 @@
         <v>1967262.53130227</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17361,7 +15313,7 @@
         <v>1981014.58330227</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17394,7 +15346,7 @@
         <v>1981022.58330227</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17427,7 +15379,7 @@
         <v>1974077.48280227</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17460,7 +15412,7 @@
         <v>1967244.50900227</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17493,7 +15445,7 @@
         <v>1945015.18880227</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17526,7 +15478,7 @@
         <v>1988070.02980227</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17559,7 +15511,7 @@
         <v>1981561.92860227</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17592,7 +15544,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17625,7 +15577,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17658,7 +15610,7 @@
         <v>1981383.78220227</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17691,7 +15643,7 @@
         <v>1973019.69570227</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17724,7 +15676,7 @@
         <v>1972898.38610227</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17757,7 +15709,7 @@
         <v>1972917.38610227</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17790,7 +15742,7 @@
         <v>1972917.38610227</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17823,7 +15775,7 @@
         <v>1918573.89580227</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17856,7 +15808,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17889,7 +15841,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17922,7 +15874,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17955,7 +15907,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18021,7 +15973,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18087,7 +16039,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18120,7 +16072,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18153,7 +16105,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18186,7 +16138,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18219,7 +16171,7 @@
         <v>1915856.89580227</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18252,7 +16204,7 @@
         <v>1915856.89580227</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18285,7 +16237,7 @@
         <v>1919981.46600227</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18318,7 +16270,7 @@
         <v>1919981.46600227</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18351,7 +16303,7 @@
         <v>1918212.41150227</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18384,7 +16336,7 @@
         <v>1918212.41150227</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18417,7 +16369,7 @@
         <v>1918282.90780227</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18450,7 +16402,7 @@
         <v>1898451.38227521</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18483,7 +16435,7 @@
         <v>1898451.38227521</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18516,7 +16468,7 @@
         <v>1884348.29597521</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18549,7 +16501,7 @@
         <v>1884348.29597521</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18582,7 +16534,7 @@
         <v>1885951.49597521</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18615,7 +16567,7 @@
         <v>1885951.49597521</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18648,7 +16600,7 @@
         <v>1885951.49597521</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18681,7 +16633,7 @@
         <v>1897743.43027521</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18714,7 +16666,7 @@
         <v>1897743.43027521</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18747,7 +16699,7 @@
         <v>1897743.43027521</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18780,7 +16732,7 @@
         <v>1899413.87567521</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18813,7 +16765,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18846,7 +16798,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18879,7 +16831,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18912,7 +16864,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18945,7 +16897,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18978,7 +16930,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19011,7 +16963,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19044,7 +16996,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19077,7 +17029,7 @@
         <v>1947819.75237521</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19110,7 +17062,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19143,7 +17095,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19176,7 +17128,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19209,7 +17161,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19242,7 +17194,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19275,7 +17227,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19308,7 +17260,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19341,7 +17293,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19374,7 +17326,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19407,7 +17359,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19440,7 +17392,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19473,7 +17425,7 @@
         <v>2009659.50722227</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19506,7 +17458,7 @@
         <v>2008494.51712227</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19539,7 +17491,7 @@
         <v>2016504.08752227</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19572,7 +17524,7 @@
         <v>2016504.08752227</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19605,7 +17557,7 @@
         <v>2010254.08752227</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19638,7 +17590,7 @@
         <v>2009699.75322227</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19671,7 +17623,7 @@
         <v>2031280.07402227</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19704,7 +17656,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19737,7 +17689,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19770,7 +17722,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19803,7 +17755,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19836,7 +17788,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19869,7 +17821,7 @@
         <v>2019669.06002227</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19902,7 +17854,7 @@
         <v>2021932.57842227</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19935,7 +17887,7 @@
         <v>2021932.57842227</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19968,7 +17920,7 @@
         <v>2031102.28492227</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20001,7 +17953,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20034,7 +17986,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20067,7 +18019,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20100,7 +18052,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20133,7 +18085,7 @@
         <v>2055381.81532227</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20166,7 +18118,7 @@
         <v>2108967.84782227</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20199,7 +18151,7 @@
         <v>2118897.74752227</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20232,7 +18184,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20265,7 +18217,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20298,7 +18250,7 @@
         <v>2085218.53772227</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20331,7 +18283,7 @@
         <v>2058135.45652227</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20364,7 +18316,7 @@
         <v>2058135.45652227</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20397,7 +18349,7 @@
         <v>2043429.57422227</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20430,7 +18382,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20463,7 +18415,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20496,7 +18448,7 @@
         <v>2056036.36322227</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20529,7 +18481,7 @@
         <v>2070671.58952227</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20562,7 +18514,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20595,7 +18547,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20628,7 +18580,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20661,7 +18613,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20694,7 +18646,7 @@
         <v>2119447.85552227</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20727,7 +18679,7 @@
         <v>2116886.85552227</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20760,7 +18712,7 @@
         <v>2101319.51732227</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20793,7 +18745,7 @@
         <v>2106055.15832227</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20826,7 +18778,7 @@
         <v>2091739.75092227</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20859,7 +18811,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20892,7 +18844,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20925,7 +18877,7 @@
         <v>2095575.75092227</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20958,7 +18910,7 @@
         <v>2105243.30232227</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20991,7 +18943,7 @@
         <v>2117825.11682227</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21024,7 +18976,7 @@
         <v>2231960.01122227</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21057,7 +19009,7 @@
         <v>2369076.61052227</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21090,7 +19042,7 @@
         <v>2369276.61052227</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21101,6 +19053,6 @@
       <c r="M563" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest XLM.xlsx
+++ b/BackTest/2019-11-24 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>71</v>
-      </c>
-      <c r="J3" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>1206164.65872322</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71</v>
-      </c>
-      <c r="J4" t="n">
-        <v>71</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>71</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>71</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71</v>
-      </c>
-      <c r="J7" t="n">
-        <v>71</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>1248901.55862322</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>71</v>
-      </c>
-      <c r="J8" t="n">
-        <v>71</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>1248680.08402322</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>70.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +781,10 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>70.40000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +814,11 @@
         <v>1336798.06092322</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,17 +847,11 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -958,7 +880,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -991,7 +913,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -5644,10 +5566,14 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>68.8</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5677,11 +5603,19 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +5647,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5776,11 +5716,17 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>69.2</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5759,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5846,7 +5796,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5879,7 +5833,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5912,7 +5870,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5945,7 +5907,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5978,7 +5944,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6011,7 +5981,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6044,7 +6018,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6077,7 +6055,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6110,7 +6092,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6143,7 +6129,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6176,7 +6166,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6209,7 +6203,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6242,7 +6240,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6275,7 +6277,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6308,7 +6314,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6341,7 +6351,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6374,7 +6388,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6407,7 +6425,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6440,7 +6462,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6473,7 +6499,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6506,7 +6536,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6539,7 +6573,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6572,7 +6610,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6605,7 +6647,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6638,7 +6684,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6671,7 +6721,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6704,7 +6758,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6737,7 +6795,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6770,7 +6832,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6803,7 +6869,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6836,7 +6906,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6869,7 +6943,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6902,7 +6980,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6935,7 +7017,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7054,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7001,7 +7091,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7034,7 +7128,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7067,7 +7165,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7100,7 +7202,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7133,7 +7239,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7166,7 +7276,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7199,7 +7313,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7232,7 +7350,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7265,7 +7387,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7298,7 +7424,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7331,7 +7461,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7364,7 +7498,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7397,7 +7535,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7430,7 +7572,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7463,7 +7609,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7496,7 +7646,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7529,7 +7683,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7562,7 +7720,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7595,7 +7757,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7628,7 +7794,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7661,7 +7831,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7694,7 +7868,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7727,7 +7905,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7760,7 +7942,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7793,7 +7979,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7826,7 +8016,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7859,7 +8053,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7892,7 +8090,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7925,7 +8127,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7958,7 +8164,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7991,7 +8201,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8024,7 +8238,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +8271,17 @@
         <v>1625778.09222889</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>69</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +8310,17 @@
         <v>1625295.09232889</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>69.2</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8353,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8156,7 +8390,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8189,7 +8427,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8218,11 +8460,17 @@
         <v>1595203.77122889</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>69</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8251,11 +8499,17 @@
         <v>1584168.17522889</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8284,11 +8538,17 @@
         <v>1555661.45802889</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>69</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +8577,17 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>68.8</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8350,11 +8616,17 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8383,11 +8655,17 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8416,11 +8694,17 @@
         <v>1625279.99092889</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8449,11 +8733,17 @@
         <v>1622119.49022889</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>69</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +8772,17 @@
         <v>1622169.49022889</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>68.8</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8515,11 +8811,17 @@
         <v>1596328.94422889</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>69</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +8850,17 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8581,11 +8889,17 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>69</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8614,11 +8928,17 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>69</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +8967,17 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>69</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8680,11 +9006,17 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>69</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8713,11 +9045,17 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +9084,17 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8779,11 +9123,17 @@
         <v>1572248.30632889</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8812,11 +9162,17 @@
         <v>1572972.35562889</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>68.59999999999999</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8845,11 +9201,17 @@
         <v>1567901.49762889</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>69</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8878,11 +9240,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>68.8</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +9279,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>69</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +9318,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>69</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +9357,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>69</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9010,11 +9396,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>69</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9043,11 +9435,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>69</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9076,11 +9474,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>69</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9109,11 +9513,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>69</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9142,11 +9552,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>69</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9175,11 +9591,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>69</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9208,11 +9630,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>69</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +9669,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>69</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9274,11 +9708,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>69</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9307,11 +9747,17 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>69</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9340,11 +9786,17 @@
         <v>1592720.11412889</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>69</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9373,11 +9825,17 @@
         <v>1584720.11412889</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9406,11 +9864,17 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>69</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +9903,17 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>69.2</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9472,11 +9942,17 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>69.2</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9505,11 +9981,17 @@
         <v>1606100.50322889</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>69.2</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9538,11 +10020,17 @@
         <v>1606183.78652889</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>69.40000000000001</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9575,7 +10063,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9604,11 +10096,17 @@
         <v>1592756.48012889</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>69.40000000000001</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9641,7 +10139,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9674,7 +10176,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9707,7 +10213,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9740,7 +10250,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9773,7 +10287,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9806,7 +10324,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9839,7 +10361,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9872,7 +10398,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9905,7 +10435,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9938,7 +10472,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9971,7 +10509,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10004,7 +10546,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10037,7 +10583,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10070,7 +10620,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10103,7 +10657,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10136,7 +10694,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10169,7 +10731,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10202,7 +10768,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10235,7 +10805,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10268,7 +10842,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10301,7 +10879,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10334,7 +10916,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10367,7 +10953,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10400,7 +10990,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +11027,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10466,7 +11064,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10499,7 +11101,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10532,7 +11138,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10565,7 +11175,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10598,7 +11212,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10631,7 +11249,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10664,7 +11286,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10697,7 +11323,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10730,7 +11360,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10763,7 +11397,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10796,7 +11434,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10829,7 +11471,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10862,7 +11508,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10895,7 +11545,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10928,7 +11582,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10961,7 +11619,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10994,7 +11656,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11027,7 +11693,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11060,7 +11730,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11093,7 +11767,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11126,7 +11804,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11159,7 +11841,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11192,7 +11878,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11225,7 +11915,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11258,7 +11952,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11291,7 +11989,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11324,7 +12026,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11357,7 +12063,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11390,7 +12100,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11423,7 +12137,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11456,7 +12174,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11489,7 +12211,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11522,7 +12248,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11555,7 +12285,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11588,7 +12322,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11621,7 +12359,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11654,7 +12396,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11687,7 +12433,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11720,7 +12470,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11753,7 +12507,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11786,7 +12544,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11819,7 +12581,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11852,7 +12618,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11885,7 +12655,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11918,7 +12692,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11947,11 +12725,17 @@
         <v>1585158.579328889</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>69</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11984,7 +12768,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12017,7 +12805,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12046,11 +12838,17 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>69</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12079,11 +12877,17 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>69</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12112,11 +12916,17 @@
         <v>1464082.581028889</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>69</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12149,7 +12959,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12182,7 +12996,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12215,7 +13033,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12248,7 +13070,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12281,7 +13107,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12314,7 +13144,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12347,7 +13181,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12380,7 +13218,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12413,7 +13255,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12446,7 +13292,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12479,7 +13329,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12512,7 +13366,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12545,7 +13403,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12578,7 +13440,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12611,7 +13477,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12644,7 +13514,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12677,7 +13551,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12710,7 +13588,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12743,7 +13625,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12776,7 +13662,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12809,7 +13699,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12842,7 +13736,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12875,7 +13773,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12908,7 +13810,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12941,7 +13847,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12974,7 +13884,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13007,7 +13921,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13040,7 +13958,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13073,7 +13995,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13106,7 +14032,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13139,7 +14069,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13172,7 +14106,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13205,7 +14143,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13238,7 +14180,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13271,7 +14217,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13304,7 +14254,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13337,7 +14291,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13366,14 +14324,16 @@
         <v>1536011.159902269</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
@@ -13465,7 +14425,7 @@
         <v>1507315.647702269</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15247,7 +16207,7 @@
         <v>1967541.47120227</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15280,7 +16240,7 @@
         <v>1967262.53130227</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15313,7 +16273,7 @@
         <v>1981014.58330227</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15346,7 +16306,7 @@
         <v>1981022.58330227</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15379,7 +16339,7 @@
         <v>1974077.48280227</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15412,7 +16372,7 @@
         <v>1967244.50900227</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15445,7 +16405,7 @@
         <v>1945015.18880227</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15478,7 +16438,7 @@
         <v>1988070.02980227</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15511,7 +16471,7 @@
         <v>1981561.92860227</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15544,7 +16504,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15577,7 +16537,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15610,7 +16570,7 @@
         <v>1981383.78220227</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15643,7 +16603,7 @@
         <v>1973019.69570227</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15676,7 +16636,7 @@
         <v>1972898.38610227</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15709,7 +16669,7 @@
         <v>1972917.38610227</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15742,7 +16702,7 @@
         <v>1972917.38610227</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15775,7 +16735,7 @@
         <v>1918573.89580227</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15808,7 +16768,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15841,7 +16801,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15874,7 +16834,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15907,7 +16867,7 @@
         <v>1918848.89580227</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15973,7 +16933,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16039,7 +16999,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16072,7 +17032,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16105,7 +17065,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16138,7 +17098,7 @@
         <v>1915848.89580227</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16171,7 +17131,7 @@
         <v>1915856.89580227</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16204,7 +17164,7 @@
         <v>1915856.89580227</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16237,7 +17197,7 @@
         <v>1919981.46600227</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16270,7 +17230,7 @@
         <v>1919981.46600227</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16303,7 +17263,7 @@
         <v>1918212.41150227</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16336,7 +17296,7 @@
         <v>1918212.41150227</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16369,7 +17329,7 @@
         <v>1918282.90780227</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16402,7 +17362,7 @@
         <v>1898451.38227521</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16435,7 +17395,7 @@
         <v>1898451.38227521</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16468,7 +17428,7 @@
         <v>1884348.29597521</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16501,7 +17461,7 @@
         <v>1884348.29597521</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16534,7 +17494,7 @@
         <v>1885951.49597521</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16567,7 +17527,7 @@
         <v>1885951.49597521</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16600,7 +17560,7 @@
         <v>1885951.49597521</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16633,7 +17593,7 @@
         <v>1897743.43027521</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16666,7 +17626,7 @@
         <v>1897743.43027521</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16699,7 +17659,7 @@
         <v>1897743.43027521</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16732,7 +17692,7 @@
         <v>1899413.87567521</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16765,7 +17725,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16798,7 +17758,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16831,7 +17791,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16864,7 +17824,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16897,7 +17857,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16930,7 +17890,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16963,7 +17923,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16996,7 +17956,7 @@
         <v>1957224.78237521</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17029,7 +17989,7 @@
         <v>1947819.75237521</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17062,7 +18022,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17095,7 +18055,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17128,7 +18088,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17161,7 +18121,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17194,7 +18154,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17227,7 +18187,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17260,7 +18220,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17293,7 +18253,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17326,7 +18286,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17359,7 +18319,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17392,7 +18352,7 @@
         <v>1949220.31267521</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17425,7 +18385,7 @@
         <v>2009659.50722227</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17458,7 +18418,7 @@
         <v>2008494.51712227</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17491,7 +18451,7 @@
         <v>2016504.08752227</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17524,7 +18484,7 @@
         <v>2016504.08752227</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17557,7 +18517,7 @@
         <v>2010254.08752227</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17590,7 +18550,7 @@
         <v>2009699.75322227</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17623,7 +18583,7 @@
         <v>2031280.07402227</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17656,7 +18616,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17689,7 +18649,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17722,7 +18682,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17755,7 +18715,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17788,7 +18748,7 @@
         <v>2023318.66002227</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17821,7 +18781,7 @@
         <v>2019669.06002227</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17854,7 +18814,7 @@
         <v>2021932.57842227</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17887,7 +18847,7 @@
         <v>2021932.57842227</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17920,7 +18880,7 @@
         <v>2031102.28492227</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17953,7 +18913,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17986,7 +18946,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18019,7 +18979,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18052,7 +19012,7 @@
         <v>2052267.69392227</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18085,7 +19045,7 @@
         <v>2055381.81532227</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18118,7 +19078,7 @@
         <v>2108967.84782227</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18151,7 +19111,7 @@
         <v>2118897.74752227</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18184,7 +19144,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18217,7 +19177,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18250,7 +19210,7 @@
         <v>2085218.53772227</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18283,7 +19243,7 @@
         <v>2058135.45652227</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18316,7 +19276,7 @@
         <v>2058135.45652227</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18349,7 +19309,7 @@
         <v>2043429.57422227</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18382,7 +19342,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18415,7 +19375,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18448,7 +19408,7 @@
         <v>2056036.36322227</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18481,7 +19441,7 @@
         <v>2070671.58952227</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18514,7 +19474,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18547,7 +19507,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18580,7 +19540,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18613,7 +19573,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18646,7 +19606,7 @@
         <v>2119447.85552227</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18679,7 +19639,7 @@
         <v>2116886.85552227</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18712,7 +19672,7 @@
         <v>2101319.51732227</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18745,7 +19705,7 @@
         <v>2106055.15832227</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18778,7 +19738,7 @@
         <v>2091739.75092227</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18811,7 +19771,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18844,7 +19804,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18877,7 +19837,7 @@
         <v>2095575.75092227</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18910,7 +19870,7 @@
         <v>2105243.30232227</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18943,7 +19903,7 @@
         <v>2117825.11682227</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18976,7 +19936,7 @@
         <v>2231960.01122227</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19009,7 +19969,7 @@
         <v>2369076.61052227</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19042,7 +20002,7 @@
         <v>2369276.61052227</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19053,6 +20013,6 @@
       <c r="M563" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest XLM.xlsx
+++ b/BackTest/2019-11-24 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1214164.65862322</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71</v>
+      </c>
+      <c r="J3" t="n">
+        <v>71</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1206164.65872322</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>71</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>1256708.06862322</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71</v>
+      </c>
+      <c r="J7" t="n">
+        <v>71</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>1248901.55862322</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>71</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>1248680.08402322</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>70.7</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>1235979.17722322</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>70.40000000000001</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>1336798.06092322</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,7 +960,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +993,7 @@
         <v>1341132.60632322</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -5566,14 +5646,10 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>68.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5603,19 +5679,11 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +5715,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5716,17 +5778,11 @@
         <v>1773766.97926743</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>69.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5759,11 +5815,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +5848,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5833,11 +5881,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +5914,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5907,11 +5947,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5944,11 +5980,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5981,11 +6013,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6018,11 +6046,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6055,11 +6079,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6092,11 +6112,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6129,11 +6145,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6166,11 +6178,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6203,11 +6211,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6240,11 +6244,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +6277,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6310,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6351,11 +6343,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +6376,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6409,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +6442,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6499,11 +6475,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6536,11 +6508,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6541,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6574,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +6607,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6684,11 +6640,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6673,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6758,11 +6706,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6795,11 +6739,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +6772,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +6805,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6906,11 +6838,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6943,11 +6871,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6980,11 +6904,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6937,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7054,11 +6970,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7091,11 +7003,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7128,11 +7036,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7165,11 +7069,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7202,11 +7102,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7239,11 +7135,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7276,11 +7168,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +7201,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7350,11 +7234,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7387,11 +7267,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7424,11 +7300,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7461,11 +7333,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7498,11 +7366,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7535,11 +7399,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +7432,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7609,11 +7465,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7646,11 +7498,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +7531,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7720,11 +7564,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7757,11 +7597,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7794,11 +7630,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7831,11 +7663,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +7696,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7905,11 +7729,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7762,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7979,11 +7795,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8016,11 +7828,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +7861,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +7894,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8127,11 +7927,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +7960,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8201,11 +7993,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8238,11 +8026,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8271,17 +8055,11 @@
         <v>1625778.09222889</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8310,17 +8088,11 @@
         <v>1625295.09232889</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>69.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8353,11 +8125,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8390,11 +8158,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8427,11 +8191,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8460,17 +8220,11 @@
         <v>1595203.77122889</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8499,17 +8253,11 @@
         <v>1584168.17522889</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>69.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8538,17 +8286,11 @@
         <v>1555661.45802889</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8577,17 +8319,11 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>68.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8616,17 +8352,11 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8655,17 +8385,11 @@
         <v>1614153.17872889</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8694,17 +8418,11 @@
         <v>1625279.99092889</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8733,17 +8451,11 @@
         <v>1622119.49022889</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8772,17 +8484,11 @@
         <v>1622169.49022889</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>68.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8811,17 +8517,11 @@
         <v>1596328.94422889</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8850,17 +8550,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8889,17 +8583,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8928,17 +8616,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8967,17 +8649,11 @@
         <v>1599859.16662889</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9006,17 +8682,11 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9045,17 +8715,11 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9084,17 +8748,11 @@
         <v>1589859.16662889</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9123,17 +8781,11 @@
         <v>1572248.30632889</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9162,17 +8814,11 @@
         <v>1572972.35562889</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>68.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9201,17 +8847,11 @@
         <v>1567901.49762889</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9240,17 +8880,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>68.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9279,17 +8913,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9318,17 +8946,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9357,17 +8979,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9396,17 +9012,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9435,17 +9045,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9474,17 +9078,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9513,17 +9111,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9552,17 +9144,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9591,17 +9177,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9630,17 +9210,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9669,17 +9243,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9708,17 +9276,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9747,17 +9309,11 @@
         <v>1571152.19762889</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9786,17 +9342,11 @@
         <v>1592720.11412889</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9825,17 +9375,11 @@
         <v>1584720.11412889</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>69.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9864,17 +9408,11 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9903,17 +9441,11 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>69.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9942,17 +9474,11 @@
         <v>1594528.91412889</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>69.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9981,17 +9507,11 @@
         <v>1606100.50322889</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>69.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10020,17 +9540,11 @@
         <v>1606183.78652889</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>69.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10063,11 +9577,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10096,17 +9606,11 @@
         <v>1592756.48012889</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>69.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10139,11 +9643,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10176,11 +9676,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10213,11 +9709,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +9742,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10287,11 +9775,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +9808,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10361,11 +9841,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10398,11 +9874,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10435,11 +9907,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10472,11 +9940,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10509,11 +9973,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10546,11 +10006,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10583,11 +10039,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +10072,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10657,11 +10105,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10694,11 +10138,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +10171,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +10204,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +10237,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10842,11 +10270,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10303,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10916,11 +10336,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10953,11 +10369,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +10402,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +10435,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11064,11 +10468,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +10501,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +10534,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +10567,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +10600,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +10633,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11286,11 +10666,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +10699,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11360,11 +10732,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11397,11 +10765,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11434,11 +10798,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11471,11 +10831,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11508,11 +10864,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11545,11 +10897,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11582,11 +10930,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11619,11 +10963,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11656,11 +10996,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11693,11 +11029,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11730,11 +11062,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11767,11 +11095,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11804,11 +11128,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11841,11 +11161,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11878,11 +11194,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11915,11 +11227,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +11260,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11989,11 +11293,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12026,11 +11326,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12063,11 +11359,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +11392,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +11425,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12174,11 +11458,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +11491,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12248,11 +11524,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +11557,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +11590,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +11623,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +11656,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12433,11 +11689,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12470,11 +11722,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12507,11 +11755,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12544,11 +11788,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12581,11 +11821,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +11854,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +11887,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12692,11 +11920,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12725,17 +11949,11 @@
         <v>1585158.579328889</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12768,11 +11986,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12805,11 +12019,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12838,17 +12048,11 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12877,17 +12081,11 @@
         <v>1458520.581028889</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12916,17 +12114,11 @@
         <v>1464082.581028889</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12959,11 +12151,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12996,11 +12184,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13033,11 +12217,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13070,11 +12250,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13107,11 +12283,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13144,11 +12316,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13181,11 +12349,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13218,11 +12382,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +12415,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +12448,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +12481,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13366,11 +12514,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13403,11 +12547,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13440,11 +12580,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13477,11 +12613,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13514,11 +12646,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13551,11 +12679,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13588,11 +12712,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13625,11 +12745,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13662,11 +12778,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13699,11 +12811,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13736,11 +12844,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13773,11 +12877,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13810,11 +12910,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13847,11 +12943,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13884,11 +12976,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13921,11 +13009,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +13042,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13995,11 +13075,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14032,11 +13108,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14069,11 +13141,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14106,11 +13174,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14143,11 +13207,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14180,11 +13240,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14217,11 +13273,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14254,11 +13306,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14291,11 +13339,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14324,16 +13368,14 @@
         <v>1536011.159902269</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
       <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
@@ -14425,7 +13467,7 @@
         <v>1507315.647702269</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15778,7 +14820,7 @@
         <v>2048534.35430227</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15811,7 +14853,7 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15844,7 +14886,7 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15877,7 +14919,7 @@
         <v>2047864.95390227</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15910,7 +14952,7 @@
         <v>2046379.66490227</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15943,7 +14985,7 @@
         <v>2027006.65520227</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15976,7 +15018,7 @@
         <v>2027006.65520227</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16009,7 +15051,7 @@
         <v>2027939.54100227</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16042,7 +15084,7 @@
         <v>2027947.54100227</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16075,7 +15117,7 @@
         <v>2019452.56700227</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16108,7 +15150,7 @@
         <v>2019452.56700227</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16141,7 +15183,7 @@
         <v>1974033.35610227</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16174,7 +15216,7 @@
         <v>1974033.35610227</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16207,7 +15249,7 @@
         <v>1967541.47120227</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16240,7 +15282,7 @@
         <v>1967262.53130227</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16273,7 +15315,7 @@
         <v>1981014.58330227</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16306,7 +15348,7 @@
         <v>1981022.58330227</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16339,7 +15381,7 @@
         <v>1974077.48280227</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16372,7 +15414,7 @@
         <v>1967244.50900227</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16405,7 +15447,7 @@
         <v>1945015.18880227</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16438,7 +15480,7 @@
         <v>1988070.02980227</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16471,7 +15513,7 @@
         <v>1981561.92860227</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16504,7 +15546,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16537,7 +15579,7 @@
         <v>1981361.78220227</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16570,7 +15612,7 @@
         <v>1981383.78220227</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16603,7 +15645,7 @@
         <v>1973019.69570227</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16702,7 +15744,7 @@
         <v>1972917.38610227</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16735,7 +15777,7 @@
         <v>1918573.89580227</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -19144,7 +18186,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19177,7 +18219,7 @@
         <v>2086540.96622227</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19210,7 +18252,7 @@
         <v>2085218.53772227</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19243,7 +18285,7 @@
         <v>2058135.45652227</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19342,7 +18384,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19375,7 +18417,7 @@
         <v>2047451.70122227</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19507,7 +18549,7 @@
         <v>2098145.26632227</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19540,7 +18582,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19573,7 +18615,7 @@
         <v>2089639.19352227</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19606,7 +18648,7 @@
         <v>2119447.85552227</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19639,7 +18681,7 @@
         <v>2116886.85552227</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19672,7 +18714,7 @@
         <v>2101319.51732227</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19705,7 +18747,7 @@
         <v>2106055.15832227</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19738,7 +18780,7 @@
         <v>2091739.75092227</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19771,7 +18813,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19804,7 +18846,7 @@
         <v>2095150.75092227</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19837,7 +18879,7 @@
         <v>2095575.75092227</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19870,7 +18912,7 @@
         <v>2105243.30232227</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19903,7 +18945,7 @@
         <v>2117825.11682227</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19936,7 +18978,7 @@
         <v>2231960.01122227</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19969,7 +19011,7 @@
         <v>2369076.61052227</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20002,7 +19044,7 @@
         <v>2369276.61052227</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
